--- a/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>GGR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,11 +665,11 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -691,19 +691,19 @@
         <v>44561</v>
       </c>
       <c r="E7" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="F7" s="2">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G7" s="2">
-        <v>44286</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44196</v>
-      </c>
-      <c r="I7" s="2">
-        <v>44104</v>
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -716,26 +716,26 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>366000</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>144800</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>171400</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -745,17 +745,17 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>126400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>284700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>131500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -774,17 +774,17 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>79400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>39900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -816,17 +816,17 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>27200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -904,25 +904,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>423300</v>
       </c>
       <c r="E17" s="3">
-        <v>1600</v>
+        <v>178800</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>400600</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
+        <v>184400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -971,23 +971,23 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-57300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1600</v>
+        <v>-34000</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-36500</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
+        <v>-13000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1013,23 +1013,23 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>-20200</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
-        <v>-5700</v>
+        <v>-4100</v>
       </c>
       <c r="G20" s="3">
-        <v>20400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1042,17 +1042,17 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>38000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>25100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1072,25 +1072,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>4900</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1900</v>
+        <v>-67400</v>
       </c>
       <c r="E23" s="3">
-        <v>-21800</v>
+        <v>-39800</v>
       </c>
       <c r="F23" s="3">
-        <v>-6000</v>
+        <v>-50300</v>
       </c>
       <c r="G23" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
+        <v>-16700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1188,22 +1188,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1900</v>
+        <v>-67400</v>
       </c>
       <c r="E26" s="3">
-        <v>-21800</v>
+        <v>-39800</v>
       </c>
       <c r="F26" s="3">
-        <v>-6000</v>
+        <v>-49300</v>
       </c>
       <c r="G26" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
+        <v>-15600</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1217,22 +1217,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1900</v>
+        <v>-67400</v>
       </c>
       <c r="E27" s="3">
-        <v>-21800</v>
+        <v>-39800</v>
       </c>
       <c r="F27" s="3">
-        <v>-6000</v>
+        <v>-49300</v>
       </c>
       <c r="G27" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
+        <v>-15600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1361,23 +1361,23 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>20200</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="G32" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1391,22 +1391,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1900</v>
+        <v>-67400</v>
       </c>
       <c r="E33" s="3">
-        <v>-21800</v>
+        <v>-39800</v>
       </c>
       <c r="F33" s="3">
-        <v>-6000</v>
+        <v>-49300</v>
       </c>
       <c r="G33" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
+        <v>-15600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1449,22 +1449,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1900</v>
+        <v>-67400</v>
       </c>
       <c r="E35" s="3">
-        <v>-21800</v>
+        <v>-39800</v>
       </c>
       <c r="F35" s="3">
-        <v>-6000</v>
+        <v>-49300</v>
       </c>
       <c r="G35" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
+        <v>-15600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>44561</v>
       </c>
       <c r="E38" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="F38" s="2">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G38" s="2">
-        <v>44286</v>
-      </c>
-      <c r="H38" s="2">
-        <v>44196</v>
-      </c>
-      <c r="I38" s="2">
-        <v>44104</v>
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1538,16 +1538,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>217400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>700</v>
+        <v>185100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1567,25 +1567,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>57400</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1625,25 +1625,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>73100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>81500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>22100</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>900</v>
+        <v>18400</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1683,16 +1683,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>358000</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1500</v>
+        <v>357500</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1712,16 +1712,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345200</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>345100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>345100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>345100</v>
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1741,25 +1741,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>479700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>444800</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1770,25 +1770,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1857,22 +1857,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1915,22 +1915,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>345800</v>
+        <v>844400</v>
       </c>
       <c r="E54" s="3">
-        <v>346200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>346400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>346600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
+        <v>809400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1970,25 +1970,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>53300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>38500</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>177400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>61200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2028,22 +2028,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>249800</v>
       </c>
       <c r="E59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+        <v>243500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2057,22 +2057,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2300</v>
+        <v>480500</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
+        <v>343200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2086,10 +2086,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>211500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53500</v>
+        <v>28700</v>
       </c>
       <c r="E62" s="3">
-        <v>52600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>26700</v>
+        <v>20800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2231,22 +2231,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55700</v>
+        <v>720700</v>
       </c>
       <c r="E66" s="3">
-        <v>54300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>32700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>26900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
+        <v>664400</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2331,10 +2331,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>85700</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>85700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2389,22 +2389,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55000</v>
+        <v>16400</v>
       </c>
       <c r="E72" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
+        <v>38900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2505,22 +2505,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>290000</v>
+        <v>38000</v>
       </c>
       <c r="E76" s="3">
-        <v>291900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>313700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>319700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
+        <v>59300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2571,19 +2571,19 @@
         <v>44561</v>
       </c>
       <c r="E80" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="F80" s="2">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G80" s="2">
-        <v>44286</v>
-      </c>
-      <c r="H80" s="2">
-        <v>44196</v>
-      </c>
-      <c r="I80" s="2">
-        <v>44104</v>
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2597,22 +2597,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1900</v>
+        <v>-67400</v>
       </c>
       <c r="E81" s="3">
-        <v>-21800</v>
+        <v>-39800</v>
       </c>
       <c r="F81" s="3">
-        <v>-6000</v>
+        <v>-49300</v>
       </c>
       <c r="G81" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
+        <v>-15600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2639,25 +2639,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>94800</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>45400</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>78600</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>36900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>80800</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>19900</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+        <v>-37000</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2855,25 +2855,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-127700</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-54700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-144300</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-74400</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-41500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-251800</v>
       </c>
       <c r="G94" s="3">
-        <v>-345000</v>
+        <v>-76000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3100,16 +3100,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>61800</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>187300</v>
       </c>
       <c r="G100" s="3">
-        <v>346900</v>
+        <v>49100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3129,25 +3129,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>98400</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>66000</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>-64700</v>
       </c>
       <c r="G102" s="3">
-        <v>700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>-64100</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>GGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,167 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>94500</v>
+      </c>
+      <c r="F8" s="3">
         <v>366000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>144800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>364100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>171400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F9" s="3">
         <v>304900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>126400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>284700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>131500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F10" s="3">
         <v>61100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>18400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>79400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>39900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F12" s="3">
         <v>28700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>27200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>13700</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,37 +938,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>9800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>9300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>314800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F17" s="3">
         <v>423300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>178800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>184400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-224100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-57300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-34000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-36500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-13000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1074,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F21" s="3">
         <v>38500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>38000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>25100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
         <v>11100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>9800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4900</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-67400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-39800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-50300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-16700</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-67400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-39800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-49300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-15600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-67400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-39800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-49300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-67400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-39800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-49300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-67400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-39800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-49300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1704,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>378800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>365300</v>
+      </c>
+      <c r="F41" s="3">
         <v>217400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>185100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,23 +1735,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>28700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>57400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,26 +1767,32 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F43" s="3">
         <v>16600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>15000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,26 +1802,32 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>92900</v>
+      </c>
+      <c r="F44" s="3">
         <v>73100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>81500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,26 +1837,32 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F45" s="3">
         <v>22100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1875,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>579800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>525600</v>
+      </c>
+      <c r="F46" s="3">
         <v>358000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>357500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,23 +1910,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,23 +1945,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>459800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>466900</v>
+      </c>
+      <c r="F48" s="3">
         <v>479700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>444800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,26 +1977,32 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,11 +2012,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2085,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2155,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1044700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>998300</v>
+      </c>
+      <c r="F54" s="3">
         <v>844400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>809400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2224,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F57" s="3">
         <v>53300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>38500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,26 +2252,32 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>393900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>264800</v>
+      </c>
+      <c r="F58" s="3">
         <v>177400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>61200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,26 +2287,32 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>327400</v>
+      </c>
+      <c r="F59" s="3">
         <v>249800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>243500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2325,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>691200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>661500</v>
+      </c>
+      <c r="F60" s="3">
         <v>480500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>343200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,23 +2360,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>203300</v>
+      </c>
+      <c r="F61" s="3">
         <v>211500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2109,23 +2395,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F62" s="3">
         <v>28700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>20800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2535,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>808600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>898100</v>
+      </c>
+      <c r="F66" s="3">
         <v>720700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>664400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,23 +2655,29 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>85700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>85700</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2725,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
         <v>16400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>38900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2865,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F76" s="3">
         <v>38000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>59300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-67400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-39800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-49300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F83" s="3">
         <v>94800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>45400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>78600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>36900</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F89" s="3">
         <v>80800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-37000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-127700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-54700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-144300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-74400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3390,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2945,28 +3405,34 @@
         <v>-41500</v>
       </c>
       <c r="E94" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-251800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-76000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3580,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>182800</v>
+      </c>
+      <c r="F100" s="3">
         <v>61800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>45900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>187300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>49100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>147900</v>
+      </c>
+      <c r="F102" s="3">
         <v>98400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>66000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-64700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-64100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>GGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,52 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,67 +720,73 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E8" s="3">
         <v>90700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>94500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>366000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>144800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>364100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E9" s="3">
         <v>78000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>81600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>304900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>126400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>284700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,32 +796,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E10" s="3">
         <v>12700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,32 +852,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E12" s="3">
         <v>11600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,32 +978,35 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>9800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,32 +1017,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E17" s="3">
         <v>314800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>423300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>178800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>184400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,32 +1053,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-224100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,32 +1109,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E20" s="3">
         <v>105500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,32 +1145,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-95000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>38500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>38000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,67 +1183,73 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-121100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,16 +1259,19 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1234,25 +1280,28 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,32 +1335,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-121100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-67400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,32 +1373,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-121100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-67400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,32 +1563,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-105500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,32 +1601,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-121100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-67400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,32 +1677,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-121100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-67400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,37 +1715,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1758,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249100</v>
+      </c>
+      <c r="E41" s="3">
         <v>378800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>365300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>217400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>185100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1752,15 +1842,15 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>28700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>57400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1773,29 +1863,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>18800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,29 +1901,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E44" s="3">
         <v>103100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>92900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>73100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,29 +1939,32 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E45" s="3">
         <v>79200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>420600</v>
+      </c>
+      <c r="E46" s="3">
         <v>579800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>525600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>358000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>357500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,15 +2032,15 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,26 +2056,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>446200</v>
+      </c>
+      <c r="E48" s="3">
         <v>459800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>466900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>479700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>444800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,11 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1997,15 +2108,15 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,11 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>876000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1044700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>998300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>844400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>809400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E57" s="3">
         <v>82400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,29 +2389,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E58" s="3">
         <v>393900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>264800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>177400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2293,29 +2427,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E59" s="3">
         <v>214900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>327400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>249800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>243500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>474300</v>
+      </c>
+      <c r="E60" s="3">
         <v>691200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>661500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>480500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>343200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,26 +2506,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E61" s="3">
         <v>92300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>203300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>211500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E62" s="3">
         <v>25100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>583300</v>
+      </c>
+      <c r="E66" s="3">
         <v>808600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>898100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>720700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>664400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2673,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>85700</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>85700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2742,15 +2916,15 @@
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>16400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292700</v>
+      </c>
+      <c r="E76" s="3">
         <v>236100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>59300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,37 +3130,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2981,32 +3173,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-121100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-67400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E83" s="3">
         <v>23700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>94800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,32 +3455,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>80800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-127700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-144300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-74400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,32 +3623,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-251800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-76000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,32 +3829,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="E100" s="3">
         <v>83200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>182800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>61800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>45900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>187300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>49100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3621,67 +3867,73 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-129700</v>
+      </c>
+      <c r="E102" s="3">
         <v>13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>147900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>98400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>66000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-64700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-64100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>GGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,55 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,73 +723,79 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E8" s="3">
         <v>102200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>90700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>366000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>144800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>364100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E9" s="3">
         <v>84400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>81600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>304900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>126400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>284700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E10" s="3">
         <v>17800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>79400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>39900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E12" s="3">
         <v>12700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,32 +1003,35 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E17" s="3">
         <v>129100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>314800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>114300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>423300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>184400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-224100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,35 +1142,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E20" s="3">
         <v>84900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>105500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>81900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-95000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,73 +1222,79 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>56400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-121100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,19 +1304,22 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1283,25 +1328,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>56400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-121100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-39800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E27" s="3">
         <v>56400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-121100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-67400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-39800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,35 +1632,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-84900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-105500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1604,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E33" s="3">
         <v>56400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-121100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-67400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-39800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E35" s="3">
         <v>56400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-121100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-67400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-39800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E41" s="3">
         <v>249100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>378800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>217400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>185100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1845,15 +1934,15 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>28700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>57400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,32 +1955,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E43" s="3">
         <v>22400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,32 +1996,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E44" s="3">
         <v>115400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>103100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>73100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,32 +2037,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E45" s="3">
         <v>33700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>397900</v>
+      </c>
+      <c r="E46" s="3">
         <v>420600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>579800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>525600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>358000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>357500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,15 +2139,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,29 +2163,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E48" s="3">
         <v>446200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>459800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>466900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>479700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>444800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,11 +2201,14 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2111,15 +2221,15 @@
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2132,11 +2242,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>873400</v>
+      </c>
+      <c r="E54" s="3">
         <v>876000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1044700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>998300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>844400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>809400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E57" s="3">
         <v>43500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,32 +2522,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>393900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>264800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>177400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,32 +2563,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E59" s="3">
         <v>130400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>214900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>327400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>249800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>243500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>248200</v>
+      </c>
+      <c r="E60" s="3">
         <v>474300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>691200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>661500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>480500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>343200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>304600</v>
+      </c>
+      <c r="E61" s="3">
         <v>85100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>92300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>203300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>211500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E62" s="3">
         <v>23900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>574400</v>
+      </c>
+      <c r="E66" s="3">
         <v>583300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>808600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>898100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>720700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>664400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>85700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>85700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,13 +3075,16 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>299000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2919,15 +3092,15 @@
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E76" s="3">
         <v>292700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>236100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>59300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3176,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E81" s="3">
         <v>56400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-121100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-67400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-39800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E83" s="3">
         <v>23900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>78600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>80800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-37300</v>
-      </c>
       <c r="F91" s="3">
-        <v>-20400</v>
+        <v>-37100</v>
       </c>
       <c r="G91" s="3">
-        <v>-127700</v>
+        <v>-20600</v>
       </c>
       <c r="H91" s="3">
-        <v>-54700</v>
+        <v>-73300</v>
       </c>
       <c r="I91" s="3">
-        <v>-144300</v>
+        <v>-55100</v>
       </c>
       <c r="J91" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-74400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-251800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-76000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,35 +4074,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-78600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>83200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>182800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>61800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>45900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>187300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>49100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,73 +4115,79 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-129700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>147900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>98400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>66000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-64700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-64100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>GGR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,79 +727,85 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E8" s="3">
         <v>95500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>102200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>90700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>366000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>144800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>364100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E9" s="3">
         <v>81100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>84400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>81600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>304900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>126400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>284700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>131500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,38 +815,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
         <v>14400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>79400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +879,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
         <v>12400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,32 +1029,35 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E17" s="3">
         <v>123000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>314800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>114300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>423300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>178800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,38 +1112,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-224100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,38 +1176,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E20" s="3">
         <v>20700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>84900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>105500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,38 +1218,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-95000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>38500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,79 +1262,85 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>56400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-121100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-50300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,22 +1350,25 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1331,25 +1377,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1438,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-121100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-67400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-39800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1482,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-121100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-67400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-39800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,38 +1702,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-84900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-105500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1746,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-121100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-67400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-39800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1834,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-121100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-67400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-39800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1965,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E41" s="3">
         <v>236100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>249100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>378800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>217400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>185100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1937,15 +2027,15 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>28700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>57400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1958,35 +2048,38 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E43" s="3">
         <v>16100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,35 +2092,38 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E44" s="3">
         <v>114700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>115400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>103100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>92900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>73100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,35 +2136,38 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E45" s="3">
         <v>31000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E46" s="3">
         <v>397900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>420600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>579800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>525600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>358000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>357500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,13 +2227,16 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>16300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2142,15 +2247,15 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,32 +2271,35 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>463800</v>
+      </c>
+      <c r="E48" s="3">
         <v>464100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>446200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>459800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>466900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>479700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>444800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,11 +2312,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2224,15 +2335,15 @@
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,11 +2356,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2447,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E54" s="3">
         <v>873400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>876000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1044700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>998300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>844400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>809400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E57" s="3">
         <v>38900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>82400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,35 +2656,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E58" s="3">
         <v>98100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>393900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>264800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>177400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,35 +2700,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E59" s="3">
         <v>111200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>214900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>327400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>249800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>243500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E60" s="3">
         <v>248200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>474300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>691200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>661500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>480500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>343200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,32 +2791,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>302300</v>
+      </c>
+      <c r="E61" s="3">
         <v>304600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>85100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>92300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>203300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>211500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,32 +2835,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E62" s="3">
         <v>21700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3011,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>574300</v>
+      </c>
+      <c r="E66" s="3">
         <v>574400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>583300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>808600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>898100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>720700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>664400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>85700</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>85700</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>299000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>266700</v>
+      </c>
+      <c r="E76" s="3">
         <v>299000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>292700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>236100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>59300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3562,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-121100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-67400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-39800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3626,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E83" s="3">
         <v>21800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>94800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E89" s="3">
         <v>4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>80800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4082,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-251800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4320,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-78600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>83200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>182800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>61800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>45900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>187300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>49100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,79 +4364,85 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-129700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>147900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>98400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>66000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-64700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-64100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>GGR</t>
   </si>
@@ -1364,11 +1364,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
